--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fgf1-Cspg4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fgf1-Cspg4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Fgf1</t>
   </si>
   <si>
     <t>Cspg4</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.161357666666667</v>
+        <v>1.190640666666667</v>
       </c>
       <c r="H2">
-        <v>3.484073</v>
+        <v>3.571922</v>
       </c>
       <c r="I2">
-        <v>0.1270850363824361</v>
+        <v>0.1136540143525372</v>
       </c>
       <c r="J2">
-        <v>0.1270850363824361</v>
+        <v>0.1136540143525372</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.577167666666667</v>
+        <v>1.389155</v>
       </c>
       <c r="N2">
-        <v>4.731503</v>
+        <v>4.167465</v>
       </c>
       <c r="O2">
-        <v>0.05487405574265763</v>
+        <v>0.04218208231191696</v>
       </c>
       <c r="P2">
-        <v>0.05487405574265762</v>
+        <v>0.04218208231191697</v>
       </c>
       <c r="Q2">
-        <v>1.831655761302111</v>
+        <v>1.653984435303333</v>
       </c>
       <c r="R2">
-        <v>16.484901851719</v>
+        <v>14.88585991773</v>
       </c>
       <c r="S2">
-        <v>0.006973671370507472</v>
+        <v>0.004794162988498518</v>
       </c>
       <c r="T2">
-        <v>0.00697367137050747</v>
+        <v>0.004794162988498519</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.161357666666667</v>
+        <v>1.190640666666667</v>
       </c>
       <c r="H3">
-        <v>3.484073</v>
+        <v>3.571922</v>
       </c>
       <c r="I3">
-        <v>0.1270850363824361</v>
+        <v>0.1136540143525372</v>
       </c>
       <c r="J3">
-        <v>0.1270850363824361</v>
+        <v>0.1136540143525372</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,25 +620,25 @@
         <v>12.088216</v>
       </c>
       <c r="N3">
-        <v>36.26464799999999</v>
+        <v>36.264648</v>
       </c>
       <c r="O3">
-        <v>0.4205827019109694</v>
+        <v>0.3670620789733555</v>
       </c>
       <c r="P3">
-        <v>0.4205827019109693</v>
+        <v>0.3670620789733555</v>
       </c>
       <c r="Q3">
-        <v>14.03874232792266</v>
+        <v>14.39272155705067</v>
       </c>
       <c r="R3">
-        <v>126.348680951304</v>
+        <v>129.534494013456</v>
       </c>
       <c r="S3">
-        <v>0.05344976797417882</v>
+        <v>0.0417180787919099</v>
       </c>
       <c r="T3">
-        <v>0.05344976797417881</v>
+        <v>0.04171807879190991</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.161357666666667</v>
+        <v>1.190640666666667</v>
       </c>
       <c r="H4">
-        <v>3.484073</v>
+        <v>3.571922</v>
       </c>
       <c r="I4">
-        <v>0.1270850363824361</v>
+        <v>0.1136540143525372</v>
       </c>
       <c r="J4">
-        <v>0.1270850363824361</v>
+        <v>0.1136540143525372</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>15.01473333333333</v>
+        <v>18.849947</v>
       </c>
       <c r="N4">
-        <v>45.0442</v>
+        <v>56.549841</v>
       </c>
       <c r="O4">
-        <v>0.5224043906732002</v>
+        <v>0.5723839427056535</v>
       </c>
       <c r="P4">
-        <v>0.5224043906732002</v>
+        <v>0.5723839427056536</v>
       </c>
       <c r="Q4">
-        <v>17.43747566962222</v>
+        <v>22.44351346271133</v>
       </c>
       <c r="R4">
-        <v>156.9372810266</v>
+        <v>201.991621164402</v>
       </c>
       <c r="S4">
-        <v>0.06638978099504801</v>
+        <v>0.0650537328394302</v>
       </c>
       <c r="T4">
-        <v>0.06638978099504801</v>
+        <v>0.06505373283943021</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>1.161357666666667</v>
+        <v>1.190640666666667</v>
       </c>
       <c r="H5">
-        <v>3.484073</v>
+        <v>3.571922</v>
       </c>
       <c r="I5">
-        <v>0.1270850363824361</v>
+        <v>0.1136540143525372</v>
       </c>
       <c r="J5">
-        <v>0.1270850363824361</v>
+        <v>0.1136540143525372</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.06147400000000001</v>
+        <v>0.6050296666666667</v>
       </c>
       <c r="N5">
-        <v>0.184422</v>
+        <v>1.815089</v>
       </c>
       <c r="O5">
-        <v>0.00213885167317286</v>
+        <v>0.01837189600907387</v>
       </c>
       <c r="P5">
-        <v>0.00213885167317286</v>
+        <v>0.01837189600907387</v>
       </c>
       <c r="Q5">
-        <v>0.07139330120066668</v>
+        <v>0.7203729256731112</v>
       </c>
       <c r="R5">
-        <v>0.6425397108060001</v>
+        <v>6.483356331058</v>
       </c>
       <c r="S5">
-        <v>0.0002718160427018072</v>
+        <v>0.002088039732698603</v>
       </c>
       <c r="T5">
-        <v>0.0002718160427018072</v>
+        <v>0.002088039732698603</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -791,10 +791,10 @@
         <v>15.504521</v>
       </c>
       <c r="I6">
-        <v>0.565542861868062</v>
+        <v>0.4933341355895272</v>
       </c>
       <c r="J6">
-        <v>0.565542861868062</v>
+        <v>0.4933341355895272</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.577167666666667</v>
+        <v>1.389155</v>
       </c>
       <c r="N6">
-        <v>4.731503</v>
+        <v>4.167465</v>
       </c>
       <c r="O6">
-        <v>0.05487405574265763</v>
+        <v>0.04218208231191696</v>
       </c>
       <c r="P6">
-        <v>0.05487405574265762</v>
+        <v>0.04218208231191697</v>
       </c>
       <c r="Q6">
-        <v>8.15107640278478</v>
+        <v>7.179394289918333</v>
       </c>
       <c r="R6">
-        <v>73.359687625063</v>
+        <v>64.614548609265</v>
       </c>
       <c r="S6">
-        <v>0.03103363052701016</v>
+        <v>0.02080986111471584</v>
       </c>
       <c r="T6">
-        <v>0.03103363052701015</v>
+        <v>0.02080986111471584</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -853,10 +853,10 @@
         <v>15.504521</v>
       </c>
       <c r="I7">
-        <v>0.565542861868062</v>
+        <v>0.4933341355895272</v>
       </c>
       <c r="J7">
-        <v>0.565542861868062</v>
+        <v>0.4933341355895272</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,25 +868,25 @@
         <v>12.088216</v>
       </c>
       <c r="N7">
-        <v>36.26464799999999</v>
+        <v>36.264648</v>
       </c>
       <c r="O7">
-        <v>0.4205827019109694</v>
+        <v>0.3670620789733555</v>
       </c>
       <c r="P7">
-        <v>0.4205827019109693</v>
+        <v>0.3670620789733555</v>
       </c>
       <c r="Q7">
-        <v>62.47399960817866</v>
+        <v>62.47399960817868</v>
       </c>
       <c r="R7">
-        <v>562.265996473608</v>
+        <v>562.2659964736081</v>
       </c>
       <c r="S7">
-        <v>0.2378575448909316</v>
+        <v>0.1810842534380151</v>
       </c>
       <c r="T7">
-        <v>0.2378575448909316</v>
+        <v>0.1810842534380151</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -915,10 +915,10 @@
         <v>15.504521</v>
       </c>
       <c r="I8">
-        <v>0.565542861868062</v>
+        <v>0.4933341355895272</v>
       </c>
       <c r="J8">
-        <v>0.565542861868062</v>
+        <v>0.4933341355895272</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>15.01473333333333</v>
+        <v>18.849947</v>
       </c>
       <c r="N8">
-        <v>45.0442</v>
+        <v>56.549841</v>
       </c>
       <c r="O8">
-        <v>0.5224043906732002</v>
+        <v>0.5723839427056535</v>
       </c>
       <c r="P8">
-        <v>0.5224043906732002</v>
+        <v>0.5723839427056536</v>
       </c>
       <c r="Q8">
-        <v>77.59874942535556</v>
+        <v>97.41979970346235</v>
       </c>
       <c r="R8">
-        <v>698.3887448282001</v>
+        <v>876.778197331161</v>
       </c>
       <c r="S8">
-        <v>0.2954420741537628</v>
+        <v>0.2823765376000191</v>
       </c>
       <c r="T8">
-        <v>0.2954420741537628</v>
+        <v>0.2823765376000191</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,40 +977,40 @@
         <v>15.504521</v>
       </c>
       <c r="I9">
-        <v>0.565542861868062</v>
+        <v>0.4933341355895272</v>
       </c>
       <c r="J9">
-        <v>0.565542861868062</v>
+        <v>0.4933341355895272</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.06147400000000001</v>
+        <v>0.6050296666666667</v>
       </c>
       <c r="N9">
-        <v>0.184422</v>
+        <v>1.815089</v>
       </c>
       <c r="O9">
-        <v>0.00213885167317286</v>
+        <v>0.01837189600907387</v>
       </c>
       <c r="P9">
-        <v>0.00213885167317286</v>
+        <v>0.01837189600907387</v>
       </c>
       <c r="Q9">
-        <v>0.3177083079846668</v>
+        <v>3.126898390818778</v>
       </c>
       <c r="R9">
-        <v>2.859374771862</v>
+        <v>28.142085517369</v>
       </c>
       <c r="S9">
-        <v>0.001209612296357472</v>
+        <v>0.009063483436777143</v>
       </c>
       <c r="T9">
-        <v>0.001209612296357472</v>
+        <v>0.009063483436777143</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.808898333333333</v>
+        <v>4.037194</v>
       </c>
       <c r="H10">
-        <v>8.426695</v>
+        <v>12.111582</v>
       </c>
       <c r="I10">
-        <v>0.3073721017495019</v>
+        <v>0.3853751326204581</v>
       </c>
       <c r="J10">
-        <v>0.3073721017495019</v>
+        <v>0.3853751326204581</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.577167666666667</v>
+        <v>1.389155</v>
       </c>
       <c r="N10">
-        <v>4.731503</v>
+        <v>4.167465</v>
       </c>
       <c r="O10">
-        <v>0.05487405574265763</v>
+        <v>0.04218208231191696</v>
       </c>
       <c r="P10">
-        <v>0.05487405574265762</v>
+        <v>0.04218208231191697</v>
       </c>
       <c r="Q10">
-        <v>4.430103630287222</v>
+        <v>5.60828823107</v>
       </c>
       <c r="R10">
-        <v>39.870932672585</v>
+        <v>50.47459407963</v>
       </c>
       <c r="S10">
-        <v>0.01686675384514</v>
+        <v>0.01625592556516208</v>
       </c>
       <c r="T10">
-        <v>0.01686675384514</v>
+        <v>0.01625592556516208</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,10 +1080,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.808898333333333</v>
+        <v>4.037194</v>
       </c>
       <c r="H11">
-        <v>8.426695</v>
+        <v>12.111582</v>
       </c>
       <c r="I11">
-        <v>0.3073721017495019</v>
+        <v>0.3853751326204581</v>
       </c>
       <c r="J11">
-        <v>0.3073721017495019</v>
+        <v>0.3853751326204581</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,25 +1116,25 @@
         <v>12.088216</v>
       </c>
       <c r="N11">
-        <v>36.26464799999999</v>
+        <v>36.264648</v>
       </c>
       <c r="O11">
-        <v>0.4205827019109694</v>
+        <v>0.3670620789733555</v>
       </c>
       <c r="P11">
-        <v>0.4205827019109693</v>
+        <v>0.3670620789733555</v>
       </c>
       <c r="Q11">
-        <v>33.95456977537333</v>
+        <v>48.80247310590401</v>
       </c>
       <c r="R11">
-        <v>305.59112797836</v>
+        <v>439.222257953136</v>
       </c>
       <c r="S11">
-        <v>0.1292753890458589</v>
+        <v>0.1414565973642979</v>
       </c>
       <c r="T11">
-        <v>0.1292753890458589</v>
+        <v>0.1414565973642979</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,10 +1142,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.808898333333333</v>
+        <v>4.037194</v>
       </c>
       <c r="H12">
-        <v>8.426695</v>
+        <v>12.111582</v>
       </c>
       <c r="I12">
-        <v>0.3073721017495019</v>
+        <v>0.3853751326204581</v>
       </c>
       <c r="J12">
-        <v>0.3073721017495019</v>
+        <v>0.3853751326204581</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>15.01473333333333</v>
+        <v>18.849947</v>
       </c>
       <c r="N12">
-        <v>45.0442</v>
+        <v>56.549841</v>
       </c>
       <c r="O12">
-        <v>0.5224043906732002</v>
+        <v>0.5723839427056535</v>
       </c>
       <c r="P12">
-        <v>0.5224043906732002</v>
+        <v>0.5723839427056536</v>
       </c>
       <c r="Q12">
-        <v>42.17485943544445</v>
+        <v>76.10089292871801</v>
       </c>
       <c r="R12">
-        <v>379.5737349190001</v>
+        <v>684.908036358462</v>
       </c>
       <c r="S12">
-        <v>0.1605725355243894</v>
+        <v>0.2205825378300119</v>
       </c>
       <c r="T12">
-        <v>0.1605725355243894</v>
+        <v>0.2205825378300119</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>4.037194</v>
+      </c>
+      <c r="H13">
+        <v>12.111582</v>
+      </c>
+      <c r="I13">
+        <v>0.3853751326204581</v>
+      </c>
+      <c r="J13">
+        <v>0.3853751326204581</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.6050296666666667</v>
+      </c>
+      <c r="N13">
+        <v>1.815089</v>
+      </c>
+      <c r="O13">
+        <v>0.01837189600907387</v>
+      </c>
+      <c r="P13">
+        <v>0.01837189600907387</v>
+      </c>
+      <c r="Q13">
+        <v>2.442622140088667</v>
+      </c>
+      <c r="R13">
+        <v>21.983599260798</v>
+      </c>
+      <c r="S13">
+        <v>0.007080071860986108</v>
+      </c>
+      <c r="T13">
+        <v>0.007080071860986108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
         <v>25</v>
       </c>
-      <c r="E13">
-        <v>3</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>2.808898333333333</v>
-      </c>
-      <c r="H13">
-        <v>8.426695</v>
-      </c>
-      <c r="I13">
-        <v>0.3073721017495019</v>
-      </c>
-      <c r="J13">
-        <v>0.3073721017495019</v>
-      </c>
-      <c r="K13">
-        <v>2</v>
-      </c>
-      <c r="L13">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M13">
-        <v>0.06147400000000001</v>
-      </c>
-      <c r="N13">
-        <v>0.184422</v>
-      </c>
-      <c r="O13">
-        <v>0.00213885167317286</v>
-      </c>
-      <c r="P13">
-        <v>0.00213885167317286</v>
-      </c>
-      <c r="Q13">
-        <v>0.1726742161433334</v>
-      </c>
-      <c r="R13">
-        <v>1.55406794529</v>
-      </c>
-      <c r="S13">
-        <v>0.0006574233341135807</v>
-      </c>
-      <c r="T13">
-        <v>0.0006574233341135806</v>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.08000233333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.240007</v>
+      </c>
+      <c r="I14">
+        <v>0.007636717437477471</v>
+      </c>
+      <c r="J14">
+        <v>0.007636717437477472</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1.389155</v>
+      </c>
+      <c r="N14">
+        <v>4.167465</v>
+      </c>
+      <c r="O14">
+        <v>0.04218208231191696</v>
+      </c>
+      <c r="P14">
+        <v>0.04218208231191697</v>
+      </c>
+      <c r="Q14">
+        <v>0.1111356413616666</v>
+      </c>
+      <c r="R14">
+        <v>1.000220772255</v>
+      </c>
+      <c r="S14">
+        <v>0.0003221326435405262</v>
+      </c>
+      <c r="T14">
+        <v>0.0003221326435405264</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.08000233333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.240007</v>
+      </c>
+      <c r="I15">
+        <v>0.007636717437477471</v>
+      </c>
+      <c r="J15">
+        <v>0.007636717437477472</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>12.088216</v>
+      </c>
+      <c r="N15">
+        <v>36.264648</v>
+      </c>
+      <c r="O15">
+        <v>0.3670620789733555</v>
+      </c>
+      <c r="P15">
+        <v>0.3670620789733555</v>
+      </c>
+      <c r="Q15">
+        <v>0.9670854858373333</v>
+      </c>
+      <c r="R15">
+        <v>8.703769372536</v>
+      </c>
+      <c r="S15">
+        <v>0.002803149379132557</v>
+      </c>
+      <c r="T15">
+        <v>0.002803149379132557</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.08000233333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.240007</v>
+      </c>
+      <c r="I16">
+        <v>0.007636717437477471</v>
+      </c>
+      <c r="J16">
+        <v>0.007636717437477472</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>18.849947</v>
+      </c>
+      <c r="N16">
+        <v>56.549841</v>
+      </c>
+      <c r="O16">
+        <v>0.5723839427056535</v>
+      </c>
+      <c r="P16">
+        <v>0.5723839427056536</v>
+      </c>
+      <c r="Q16">
+        <v>1.508039743209667</v>
+      </c>
+      <c r="R16">
+        <v>13.572357688887</v>
+      </c>
+      <c r="S16">
+        <v>0.00437113443619237</v>
+      </c>
+      <c r="T16">
+        <v>0.004371134436192372</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.08000233333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.240007</v>
+      </c>
+      <c r="I17">
+        <v>0.007636717437477471</v>
+      </c>
+      <c r="J17">
+        <v>0.007636717437477472</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.6050296666666667</v>
+      </c>
+      <c r="N17">
+        <v>1.815089</v>
+      </c>
+      <c r="O17">
+        <v>0.01837189600907387</v>
+      </c>
+      <c r="P17">
+        <v>0.01837189600907387</v>
+      </c>
+      <c r="Q17">
+        <v>0.04840378506922222</v>
+      </c>
+      <c r="R17">
+        <v>0.435634065623</v>
+      </c>
+      <c r="S17">
+        <v>0.0001403009786120172</v>
+      </c>
+      <c r="T17">
+        <v>0.0001403009786120172</v>
       </c>
     </row>
   </sheetData>
